--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:28:27+00:00</t>
+    <t>2025-09-22T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:05:42+00:00</t>
+    <t>2025-09-24T14:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:08:52+00:00</t>
+    <t>2025-10-01T08:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T08:29:05+00:00</t>
+    <t>2025-10-20T13:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:10:23+00:00</t>
+    <t>2025-10-21T07:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:40:55+00:00</t>
+    <t>2025-10-22T07:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:21:52+00:00</t>
+    <t>2025-10-22T14:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-birth-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:35:45+00:00</t>
+    <t>2025-10-23T08:42:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
